--- a/output/google_maps_data_Kantor_Polisi_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Kantor_Polisi_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 773110</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>-7.866178</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.866178</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.175672</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12a164ac3d:0x665aab4960922583!8m2!3d-7.8661776!4d110.1756721!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11df0nm9f5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12a164ac3d:0x665aab4960922583!8m2!3d-7.8661776!4d110.1756721!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11df0nm9f5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -553,22 +547,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-7.940261</v>
+      </c>
       <c r="G3" t="n">
-        <v>-7.940261</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.236967</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Galur/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afcab7bc755ef:0xefc6643d4f55c827!8m2!3d-7.9402606!4d110.2369673!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1ptxcp78h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -583,25 +576,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.866007</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.866007</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.176049</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK+dan+Perijinan+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb129ffd080f:0x8e85b116dac4a295!8m2!3d-7.8660075!4d110.1760488!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gfjcrt5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK+dan+Perijinan+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb129ffd080f:0x8e85b116dac4a295!8m2!3d-7.8660075!4d110.1760488!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gfjcrt5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -625,22 +617,21 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.856831</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.856831</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.159949</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Wates/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb2337660d8d:0xb3f44b953d7c446e!8m2!3d-7.8568314!4d110.1599491!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F1ptxcp78g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -660,22 +651,21 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-7.865491</v>
+      </c>
       <c r="G6" t="n">
-        <v>-7.865491</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.175371</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Primkoppol+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb129abf94f3:0x2d2ce84b36a5ad03!8m2!3d-7.8654914!4d110.1753714!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11b6ljv_8m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -695,22 +685,21 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-7.660205</v>
+      </c>
       <c r="G7" t="n">
-        <v>-7.660205</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.15676</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Samigaluh/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af36c6825d777:0xc4a2199bb7b4b6d1!8m2!3d-7.6602051!4d110.1567595!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11gn1_njkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -730,22 +719,21 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.675171</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.675171</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.262953</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kalibawang/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7a808a54bdef25:0x4957c45b29b22ee6!8m2!3d-7.6751715!4d110.2629531!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1q62dsyr8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -761,22 +749,21 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.865551</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.865551</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.156866</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Kulonprogo+Pos+Polisi+Unit+Turjawali/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb3920fd21f5:0x357f2d717213988!8m2!3d-7.8655506!4d110.1568662!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11fswht_gx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -796,22 +783,21 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.865282</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.865282</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.175429</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/INAFIS+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb1298be323b:0x51cafa482b28eeb7!8m2!3d-7.8652818!4d110.1754291!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERcG9saWNlX2RlcGFydG1lbnTgAQA!16s%2Fg%2F11dxc7r2f3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -831,22 +817,21 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-7.777048</v>
+      </c>
       <c r="G11" t="n">
-        <v>-7.777048</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.212256</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Nanggulan/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af9900000000b:0xc8c42f47772a6b15!8m2!3d-7.7770477!4d110.2122558!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1pzrr9l2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -862,22 +847,21 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.866396</v>
+      </c>
       <c r="G12" t="n">
-        <v>-7.866396</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.175256</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Sabhara+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12a4c7935d:0x290d85d45a11d96!8m2!3d-7.8663962!4d110.1752559!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11fz9z0gqm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -893,22 +877,21 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.866381</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.866381</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.175769</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tiang+Bendera+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afbaf9763fb41:0xbedab81acfdccb3f!8m2!3d-7.8663813!4d110.1757685!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11h4gps44g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -928,22 +911,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.931265</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.931265</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.227779</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Lendah+Polres+Kulonprogo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afc939d920829:0x96e80d29fbfa25df!8m2!3d-7.931265!4d110.2277788!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F11bbrm8tqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -963,22 +945,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.843565</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.843565</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.167538</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pengasih/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb0e62a5a16b:0xc7a2e3c42404ff26!8m2!3d-7.8435652!4d110.1675382!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F1pzrws6q3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -998,22 +979,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.826946</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.826946</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.224615</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sentolo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afbe555555565:0xfeba69d6a0136e0e!8m2!3d-7.8269464!4d110.2246152!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11bbrbw33k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1032,25 +1012,24 @@
           <t>(0274) 773110</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.865228</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.865228</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.175453</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb0d625ef09d:0x6b0069bffb1f90d!8m2!3d-7.8652285!4d110.1754528!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvWhsiGWthbnRvciBwb2xpc2kga3Vsb24gcHJvZ2-SARxkZXBhcnRtZW50X29mX21vdG9yX3ZlaGljbGVzmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIZVhFMlMzaG5SUkFC4AEA-gEECAAQIA!16s%2Fg%2F11bwl0sg_t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb0d625ef09d:0x6b0069bffb1f90d!8m2!3d-7.8652285!4d110.1754528!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvWhsiGWthbnRvciBwb2xpc2kga3Vsb24gcHJvZ2-SARxkZXBhcnRtZW50X29mX21vdG9yX3ZlaGljbGVzmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIZVhFMlMzaG5SUkFC4AEA-gEECAAQIA!16s%2Fg%2F11bwl0sg_t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1074,22 +1053,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-7.771001</v>
+      </c>
       <c r="G18" t="n">
-        <v>-7.771001</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.182003</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Girimulyo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af1afffffff89:0xc5e1da6f8d039431!8m2!3d-7.7710007!4d110.1820031!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11b73qnhq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1109,22 +1087,21 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.886737</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.886737</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.081397</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Temon/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae35155555553:0xe2e5caa9dcdd0297!8m2!3d-7.8867373!4d110.0813968!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F1wbyyjm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1140,22 +1117,21 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-7.865851</v>
+      </c>
       <c r="G20" t="n">
-        <v>-7.865851</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.175537</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Res+Narkoba+Polres+KP/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12991f8a03:0xd414442b83ae53a9!8m2!3d-7.8658509!4d110.1755366!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERcG9saWNlX2RlcGFydG1lbnTgAQA!16s%2Fg%2F11bzrnx0fx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1171,22 +1147,21 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.890347</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.890347</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.108852</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Siluwok/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae49d937e68f1:0x7ce7e638a7c0f0b!8m2!3d-7.8903469!4d110.1088519!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11fzf5ry0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1206,22 +1181,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-7.896928</v>
+      </c>
       <c r="G22" t="n">
-        <v>-7.896928</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.162257</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Panjatan/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afc96f3bba723:0x325b15a4b843c812!8m2!3d-7.8969279!4d110.1622567!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1pzpp206w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1241,22 +1215,21 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.832154</v>
+      </c>
       <c r="G23" t="n">
-        <v>-7.832154</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.221109</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DETASEMEN+B+PELOPOR/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afa231985105d:0xe3aacce561cd749!8m2!3d-7.832154!4d110.2211093!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11c5_46d1d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1276,22 +1249,21 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-7.86503</v>
+      </c>
       <c r="G24" t="n">
-        <v>-7.86503</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.109519</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kokap/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae59f6bf4cc43:0xb5a40c13ff956420!8m2!3d-7.8650298!4d110.1095194!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F1pzxzqsnr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1307,22 +1279,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.894524</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.894524</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.14696</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Lalu+Lintas+Bendungan/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afca95340e0cd:0x5baca7eeccb63f04!8m2!3d-7.8945238!4d110.1469595!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11f10pcfb9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1337,25 +1308,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>-7.642394</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.642394</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.254074</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+polisi/@-7.6423936,109.9656826,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af5bc35da98a3:0x62cc15724aa1fe63!8m2!3d-7.6423936!4d110.2540737!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11rfcbmn_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+polisi/@-7.6423936,109.9656826,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af5bc35da98a3:0x62cc15724aa1fe63!8m2!3d-7.6423936!4d110.2540737!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11rfcbmn_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1379,22 +1349,21 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.89454</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.89454</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.1467</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsubsektor+Bendungan/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afcaeb525a647:0xb447991477c832f1!8m2!3d-7.8945405!4d110.1467003!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F1pzpr15p7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1409,25 +1378,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.826088</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.826088</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.225643</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Ngeplang+Sentolo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afa233ac9f8f3:0xcdfb0df3f7deb72!8m2!3d-7.8260884!4d110.2256431!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11fz9_488j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Ngeplang+Sentolo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afa233ac9f8f3:0xcdfb0df3f7deb72!8m2!3d-7.8260884!4d110.2256431!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11fz9_488j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1447,22 +1415,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-7.857277</v>
+      </c>
       <c r="G29" t="n">
-        <v>-7.857277</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.160092</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Asrama+Polisi+Polres+Kulon+Progo+Unit+1/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb2330e85ad7:0xf04a22a4150176e6!8m2!3d-7.857277!4d110.1600915!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11f3wmt99g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1478,22 +1445,21 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-7.87592</v>
+      </c>
       <c r="G30" t="n">
-        <v>-7.87592</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.205914</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb9201bce837:0xc099f181ba6cf63c!8m2!3d-7.8759203!4d110.205914!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11g9m8h2ms?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1508,25 +1474,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F31" t="n">
-        <v>3.6</v>
+        <v>-7.865625</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.865625</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.156848</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polantas+Karangnongko/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb39205f27d7:0x679238f1a4f521b3!8m2!3d-7.8656254!4d110.1568479!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11b6hsmww7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1542,22 +1507,21 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-7.844919</v>
+      </c>
       <c r="G32" t="n">
-        <v>-7.844919</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.21802</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Perempatan+Ngelo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afbccad09e2a5:0xa236efd425c8c8a!8m2!3d-7.8449186!4d110.2180196!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11f157f7v8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1573,22 +1537,21 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.86594</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.86594</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.175406</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/pelayanan+bpkb/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb1298ef3dc5:0x21d7260f0790e09e!8m2!3d-7.8659399!4d110.1754064!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11gdkqkf0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1604,22 +1567,21 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.855821</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.855821</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.157411</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Asrama+Polisi+Polres+Kulon+Progo+Unit+2/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb2485841635:0x37c9a2440411a713!8m2!3d-7.8558213!4d110.1574106!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11f3wmvns9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1635,22 +1597,21 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.856568</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.856568</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.165551</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Satpol+PP+Kabupaten+Kulon+Progo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb186a2a9d07:0x42b05c9058f0222a!8m2!3d-7.8565685!4d110.1655512!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11g7npjm80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1666,22 +1627,21 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.716602</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.716602</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.225049</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Dekso/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af3c725945f37:0xcc13b5636b911968!8m2!3d-7.7166016!4d110.2250485!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11tn69gjv7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1697,22 +1657,21 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.826801</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.826801</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.225894</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Brimob+Sentolo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae4a6034c9daf:0xa97aae7b2f159875!8m2!3d-7.8268011!4d110.2258938!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11bbrjt8rp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
